--- a/natmiOut/OldD2/LR-pairs_lrc2p/Btc-Egfr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Btc-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.90480831938983</v>
+        <v>0.06428666666666667</v>
       </c>
       <c r="H2">
-        <v>3.90480831938983</v>
+        <v>0.19286</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01098433848962954</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01638651024683679</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N2">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O2">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P2">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q2">
-        <v>2.174388140577324</v>
+        <v>0.03663272841333334</v>
       </c>
       <c r="R2">
-        <v>2.174388140577324</v>
+        <v>0.21979637048</v>
       </c>
       <c r="S2">
-        <v>0.008062564649567625</v>
+        <v>8.425652096599761E-05</v>
       </c>
       <c r="T2">
-        <v>0.008062564649567625</v>
+        <v>9.319103489089854E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.90480831938983</v>
+        <v>0.06428666666666667</v>
       </c>
       <c r="H3">
-        <v>3.90480831938983</v>
+        <v>0.19286</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01098433848962954</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01638651024683679</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P3">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q3">
-        <v>182.2094897006408</v>
+        <v>3.2209172523</v>
       </c>
       <c r="R3">
-        <v>182.2094897006408</v>
+        <v>28.9882552707</v>
       </c>
       <c r="S3">
-        <v>0.6756272088966082</v>
+        <v>0.007408219200494554</v>
       </c>
       <c r="T3">
-        <v>0.6756272088966082</v>
+        <v>0.01229067387445277</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -664,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.90480831938983</v>
+        <v>0.06428666666666667</v>
       </c>
       <c r="H4">
-        <v>3.90480831938983</v>
+        <v>0.19286</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.01098433848962954</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01638651024683679</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N4">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O4">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P4">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q4">
-        <v>1.547124457500767</v>
+        <v>0.02604540013777778</v>
       </c>
       <c r="R4">
-        <v>1.547124457500767</v>
+        <v>0.23440860124</v>
       </c>
       <c r="S4">
-        <v>0.00573669011835911</v>
+        <v>5.990530593341591E-05</v>
       </c>
       <c r="T4">
-        <v>0.00573669011835911</v>
+        <v>9.938644614184517E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -726,49 +726,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>3.90480831938983</v>
+        <v>0.06428666666666667</v>
       </c>
       <c r="H5">
-        <v>3.90480831938983</v>
+        <v>0.19286</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.01098433848962954</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.01638651024683679</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N5">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O5">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P5">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q5">
-        <v>1.103358999389882</v>
+        <v>0.01826658489777778</v>
       </c>
       <c r="R5">
-        <v>1.103358999389882</v>
+        <v>0.16439926408</v>
       </c>
       <c r="S5">
-        <v>0.004091221386951277</v>
+        <v>4.20137663799185E-05</v>
       </c>
       <c r="T5">
-        <v>0.004091221386951277</v>
+        <v>6.970332367845626E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -788,49 +788,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>3.90480831938983</v>
+        <v>0.06428666666666667</v>
       </c>
       <c r="H6">
-        <v>3.90480831938983</v>
+        <v>0.19286</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.01098433848962954</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.01638651024683679</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N6">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O6">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P6">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q6">
-        <v>3.54517199729682</v>
+        <v>0.06615293002888889</v>
       </c>
       <c r="R6">
-        <v>3.54517199729682</v>
+        <v>0.59537637026</v>
       </c>
       <c r="S6">
-        <v>0.01314538921944876</v>
+        <v>0.0001521539884512814</v>
       </c>
       <c r="T6">
-        <v>0.01314538921944876</v>
+        <v>0.0002524324672557086</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.06428666666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.19286</v>
+      </c>
+      <c r="I7">
+        <v>0.01098433848962954</v>
+      </c>
+      <c r="J7">
+        <v>0.01638651024683679</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>21.8974465</v>
+      </c>
+      <c r="N7">
+        <v>43.794893</v>
+      </c>
+      <c r="O7">
+        <v>0.2947641963565862</v>
+      </c>
+      <c r="P7">
+        <v>0.2185409246064703</v>
+      </c>
+      <c r="Q7">
+        <v>1.407713843996667</v>
+      </c>
+      <c r="R7">
+        <v>8.446283063980001</v>
+      </c>
+      <c r="S7">
+        <v>0.003237789707404369</v>
+      </c>
+      <c r="T7">
+        <v>0.003581123100417112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.7882885</v>
+      </c>
+      <c r="H8">
+        <v>11.576577</v>
+      </c>
+      <c r="I8">
+        <v>0.9890156615103705</v>
+      </c>
+      <c r="J8">
+        <v>0.9836134897531632</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.569834</v>
+      </c>
+      <c r="N8">
+        <v>1.139668</v>
+      </c>
+      <c r="O8">
+        <v>0.007670604929513537</v>
+      </c>
+      <c r="P8">
+        <v>0.005687058042690201</v>
+      </c>
+      <c r="Q8">
+        <v>3.298363589109</v>
+      </c>
+      <c r="R8">
+        <v>13.193454356436</v>
+      </c>
+      <c r="S8">
+        <v>0.00758634840854754</v>
+      </c>
+      <c r="T8">
+        <v>0.005593867007799303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3.90480831938983</v>
-      </c>
-      <c r="H7">
-        <v>3.90480831938983</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>20.2596004811042</v>
-      </c>
-      <c r="N7">
-        <v>20.2596004811042</v>
-      </c>
-      <c r="O7">
-        <v>0.293336925729065</v>
-      </c>
-      <c r="P7">
-        <v>0.293336925729065</v>
-      </c>
-      <c r="Q7">
-        <v>79.10985650612989</v>
-      </c>
-      <c r="R7">
-        <v>79.10985650612989</v>
-      </c>
-      <c r="S7">
-        <v>0.293336925729065</v>
-      </c>
-      <c r="T7">
-        <v>0.293336925729065</v>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.7882885</v>
+      </c>
+      <c r="H9">
+        <v>11.576577</v>
+      </c>
+      <c r="I9">
+        <v>0.9890156615103705</v>
+      </c>
+      <c r="J9">
+        <v>0.9836134897531632</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>50.102415</v>
+      </c>
+      <c r="N9">
+        <v>150.307245</v>
+      </c>
+      <c r="O9">
+        <v>0.6744347151618419</v>
+      </c>
+      <c r="P9">
+        <v>0.7500482829664925</v>
+      </c>
+      <c r="Q9">
+        <v>290.0072325667275</v>
+      </c>
+      <c r="R9">
+        <v>1740.043395400365</v>
+      </c>
+      <c r="S9">
+        <v>0.6670264959613474</v>
+      </c>
+      <c r="T9">
+        <v>0.7377576090920397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.7882885</v>
+      </c>
+      <c r="H10">
+        <v>11.576577</v>
+      </c>
+      <c r="I10">
+        <v>0.9890156615103705</v>
+      </c>
+      <c r="J10">
+        <v>0.9836134897531632</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4051446666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.215434</v>
+      </c>
+      <c r="O10">
+        <v>0.005453701739979455</v>
+      </c>
+      <c r="P10">
+        <v>0.006065138009542361</v>
+      </c>
+      <c r="Q10">
+        <v>2.345094214903</v>
+      </c>
+      <c r="R10">
+        <v>14.070565289418</v>
+      </c>
+      <c r="S10">
+        <v>0.00539379643404604</v>
+      </c>
+      <c r="T10">
+        <v>0.005965751563400516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.7882885</v>
+      </c>
+      <c r="H11">
+        <v>11.576577</v>
+      </c>
+      <c r="I11">
+        <v>0.9890156615103705</v>
+      </c>
+      <c r="J11">
+        <v>0.9836134897531632</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.2841426666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.8524280000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.00382487906937539</v>
+      </c>
+      <c r="P11">
+        <v>0.004253701528176911</v>
+      </c>
+      <c r="Q11">
+        <v>1.644699729826</v>
+      </c>
+      <c r="R11">
+        <v>9.868198378956</v>
+      </c>
+      <c r="S11">
+        <v>0.003782865302995471</v>
+      </c>
+      <c r="T11">
+        <v>0.004183998204498455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.7882885</v>
+      </c>
+      <c r="H12">
+        <v>11.576577</v>
+      </c>
+      <c r="I12">
+        <v>0.9890156615103705</v>
+      </c>
+      <c r="J12">
+        <v>0.9836134897531632</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.029030333333333</v>
+      </c>
+      <c r="N12">
+        <v>3.087091</v>
+      </c>
+      <c r="O12">
+        <v>0.01385190274270336</v>
+      </c>
+      <c r="P12">
+        <v>0.01540489484662774</v>
+      </c>
+      <c r="Q12">
+        <v>5.956324444584499</v>
+      </c>
+      <c r="R12">
+        <v>35.737946667507</v>
+      </c>
+      <c r="S12">
+        <v>0.01369974875425208</v>
+      </c>
+      <c r="T12">
+        <v>0.01515246237937203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.7882885</v>
+      </c>
+      <c r="H13">
+        <v>11.576577</v>
+      </c>
+      <c r="I13">
+        <v>0.9890156615103705</v>
+      </c>
+      <c r="J13">
+        <v>0.9836134897531632</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>21.8974465</v>
+      </c>
+      <c r="N13">
+        <v>43.794893</v>
+      </c>
+      <c r="O13">
+        <v>0.2947641963565862</v>
+      </c>
+      <c r="P13">
+        <v>0.2185409246064703</v>
+      </c>
+      <c r="Q13">
+        <v>126.7487377553153</v>
+      </c>
+      <c r="R13">
+        <v>506.994951021261</v>
+      </c>
+      <c r="S13">
+        <v>0.2915264066491819</v>
+      </c>
+      <c r="T13">
+        <v>0.2149598015060532</v>
       </c>
     </row>
   </sheetData>
